--- a/data/trans_dic/P37A$medicoedad-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicoedad-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1021189859161983</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1735236887902214</v>
+        <v>0.1735236887902213</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0617638456534066</v>
+        <v>0.0633719569649851</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08936302588621452</v>
+        <v>0.0894156110188828</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0793986299040538</v>
+        <v>0.08075518948667278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1420716755519714</v>
+        <v>0.1406954218615394</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08075395827917201</v>
+        <v>0.08148114923297534</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09115920221721609</v>
+        <v>0.08922873283857059</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08202788581483762</v>
+        <v>0.08142990405267098</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1644262706036673</v>
+        <v>0.1643384321939755</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07685881266643814</v>
+        <v>0.07666158245701685</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09380650128684903</v>
+        <v>0.09552733309390944</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08636826056068236</v>
+        <v>0.08709263236469983</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1587070250021094</v>
+        <v>0.1580099152216141</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1025186642074817</v>
+        <v>0.1035626986253462</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1390092968968727</v>
+        <v>0.137986837623502</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1227207027368797</v>
+        <v>0.1240437275294273</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.190609072366131</v>
+        <v>0.1881192181567525</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1268233853725782</v>
+        <v>0.1260408559722733</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1406103517444118</v>
+        <v>0.1375468371051676</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.131134468558679</v>
+        <v>0.1305290843916892</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.202498810924958</v>
+        <v>0.2042639655178516</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.106953435947037</v>
+        <v>0.1074677272879947</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1304897499183924</v>
+        <v>0.1308774822337674</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1183095296971483</v>
+        <v>0.1198210120338217</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1893866938705072</v>
+        <v>0.1902662636399878</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04978314677029778</v>
+        <v>0.05021299910185312</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07709783938730115</v>
+        <v>0.07744435875687987</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06598590538225077</v>
+        <v>0.06693840936275643</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08716913505742475</v>
+        <v>0.08659252983959215</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07720837803827488</v>
+        <v>0.0771001790106584</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08254876872888814</v>
+        <v>0.08183046163776642</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08963710848614434</v>
+        <v>0.09083397040986628</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1396701361605857</v>
+        <v>0.140506591633861</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06762780715073588</v>
+        <v>0.06917420381149933</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08546392096251099</v>
+        <v>0.08501681408708478</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0824920501144676</v>
+        <v>0.08323227635788875</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.119122742862521</v>
+        <v>0.1183275878858307</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08215581658920133</v>
+        <v>0.08093905740360091</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1174205585675248</v>
+        <v>0.1179745865897148</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1007012044796974</v>
+        <v>0.0994570195053435</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1194694515042622</v>
+        <v>0.1206724967948736</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1164616838000511</v>
+        <v>0.1173725841733539</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1218644858307222</v>
+        <v>0.1209216609105452</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.132233139883751</v>
+        <v>0.1327040620217817</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1746174208393906</v>
+        <v>0.1754085863826537</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09339823076120958</v>
+        <v>0.09394392248427744</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1135263830552997</v>
+        <v>0.1128093413385874</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1105747946093482</v>
+        <v>0.1099157631093638</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1437190864054852</v>
+        <v>0.1427874734523354</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.09912884667226295</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1156401739693707</v>
+        <v>0.1156401739693706</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.08731646427266636</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03518776556091663</v>
+        <v>0.0349442903839621</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05496846668559636</v>
+        <v>0.05662181821023812</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07696138027675209</v>
+        <v>0.0799117859047274</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09482108442649539</v>
+        <v>0.09691300340401154</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06664891280593505</v>
+        <v>0.06682462436858878</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07446389146658829</v>
+        <v>0.07321595377469019</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08489635440332452</v>
+        <v>0.08063736413322982</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1187662441978602</v>
+        <v>0.1191720220737318</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05507886218836118</v>
+        <v>0.05696261025019765</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06965831464759978</v>
+        <v>0.06999088165083256</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0860294888945304</v>
+        <v>0.08592421580769258</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1113672061764937</v>
+        <v>0.1129727414027425</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06932380660956637</v>
+        <v>0.06889086124101283</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09737338512921191</v>
+        <v>0.09904810672268755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1246649786250017</v>
+        <v>0.1239703987673747</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1373452212200316</v>
+        <v>0.1393261215719316</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1112560643206038</v>
+        <v>0.1088008820067884</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1166500454816218</v>
+        <v>0.1151247180923268</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1325469980265099</v>
+        <v>0.1276498028789931</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1560408021687395</v>
+        <v>0.1572929753620315</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08268423040005095</v>
+        <v>0.08380187493902079</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09867617498470108</v>
+        <v>0.1000997114085593</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1201464214513208</v>
+        <v>0.1200852623108679</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.140586499903274</v>
+        <v>0.141376909483693</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0456933381046131</v>
+        <v>0.04559518370733533</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06678582146788833</v>
+        <v>0.0681908777781939</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07098243533850515</v>
+        <v>0.07094829740295996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1319405790092472</v>
+        <v>0.132829581946968</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08161031152106299</v>
+        <v>0.08147320654005409</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08824101063395141</v>
+        <v>0.0896674147779615</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08581780565070345</v>
+        <v>0.08928324292960679</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1526142660439918</v>
+        <v>0.153493991613563</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06919221912340713</v>
+        <v>0.06937869340165954</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08453605130093154</v>
+        <v>0.08383942738757889</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08570037343017461</v>
+        <v>0.08465327645695546</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1487022244461178</v>
+        <v>0.1479834311060882</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07619464890974829</v>
+        <v>0.07447283581545237</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.105787243028589</v>
+        <v>0.1065224070157672</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1073064229697348</v>
+        <v>0.106974146542717</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1714784255527379</v>
+        <v>0.173600225022508</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1217662683923716</v>
+        <v>0.119879080858574</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1313544421122206</v>
+        <v>0.1283705812029218</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1309508669219068</v>
+        <v>0.1319039192744978</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.187724925870092</v>
+        <v>0.1889167713777437</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09217875862317786</v>
+        <v>0.09482530680524438</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1115807745957594</v>
+        <v>0.1115884872015182</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1140288039698973</v>
+        <v>0.1131451984215573</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1740303650597918</v>
+        <v>0.17495647594967</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.09939869202452667</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1466428763272692</v>
+        <v>0.1466428763272691</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05588560710907647</v>
+        <v>0.05522563835083841</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08157477656124505</v>
+        <v>0.08148469719695309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08251764776099688</v>
+        <v>0.08146585207475021</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1218333246614174</v>
+        <v>0.1219206995011497</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08803966563814594</v>
+        <v>0.08710788386777465</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09406107068018743</v>
+        <v>0.0927273353634392</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09555607283351561</v>
+        <v>0.09557347775142078</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1518771270525234</v>
+        <v>0.1527594749014992</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07361392191425796</v>
+        <v>0.07460706973572293</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09056488623935383</v>
+        <v>0.09040590729409177</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09199583501170452</v>
+        <v>0.09223653387040122</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1396183588121367</v>
+        <v>0.1394652620701939</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07208518335037416</v>
+        <v>0.07166536996176889</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1030108647035812</v>
+        <v>0.1029604769066043</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1014745033663597</v>
+        <v>0.101313119906393</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1426525193764617</v>
+        <v>0.1423055821761036</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1077504567253004</v>
+        <v>0.1082211288988326</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1136043484719666</v>
+        <v>0.1143481543220087</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1184223030943533</v>
+        <v>0.11903135490471</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1697305658404291</v>
+        <v>0.1709446230161244</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08710515162361278</v>
+        <v>0.08757061138066542</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1048251879597027</v>
+        <v>0.1050950438484197</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.107465981377888</v>
+        <v>0.1076333126606079</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1533954659968922</v>
+        <v>0.1538854691637485</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>42865</v>
+        <v>43981</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>62864</v>
+        <v>62901</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>53578</v>
+        <v>54494</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>98130</v>
+        <v>97180</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>55587</v>
+        <v>56088</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>63543</v>
+        <v>62197</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>55192</v>
+        <v>54789</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>120718</v>
+        <v>120654</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>106247</v>
+        <v>105974</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>131378</v>
+        <v>133788</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>116393</v>
+        <v>117369</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>226140</v>
+        <v>225147</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>71149</v>
+        <v>71874</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>97789</v>
+        <v>97069</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>82812</v>
+        <v>83705</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>131656</v>
+        <v>129936</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>87299</v>
+        <v>86760</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>98012</v>
+        <v>95877</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>88232</v>
+        <v>87825</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>148671</v>
+        <v>149967</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>147848</v>
+        <v>148559</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>182753</v>
+        <v>183296</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>159439</v>
+        <v>161475</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>269855</v>
+        <v>271108</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>47881</v>
+        <v>48295</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>78482</v>
+        <v>78834</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>67466</v>
+        <v>68440</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>91433</v>
+        <v>90828</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>74768</v>
+        <v>74663</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>85206</v>
+        <v>84464</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>93484</v>
+        <v>94732</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>149653</v>
+        <v>150549</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>130535</v>
+        <v>133520</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>175212</v>
+        <v>174296</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>170374</v>
+        <v>171903</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>252587</v>
+        <v>250901</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>79017</v>
+        <v>77847</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>119528</v>
+        <v>120092</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>102960</v>
+        <v>101688</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>125314</v>
+        <v>126575</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>112781</v>
+        <v>113663</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>125787</v>
+        <v>124813</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>137908</v>
+        <v>138399</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>187098</v>
+        <v>187946</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>180277</v>
+        <v>181330</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>232744</v>
+        <v>231274</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>228375</v>
+        <v>227014</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>304741</v>
+        <v>302765</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23875</v>
+        <v>23710</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>41645</v>
+        <v>42898</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>58456</v>
+        <v>60697</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>76148</v>
+        <v>77828</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>45577</v>
+        <v>45697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>57871</v>
+        <v>56902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>66645</v>
+        <v>63301</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>96469</v>
+        <v>96799</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>75037</v>
+        <v>77603</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>106911</v>
+        <v>107422</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>132878</v>
+        <v>132715</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>179895</v>
+        <v>182488</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>47037</v>
+        <v>46743</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>73772</v>
+        <v>75041</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>94690</v>
+        <v>94162</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>110298</v>
+        <v>111889</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>76081</v>
+        <v>74403</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>90657</v>
+        <v>89472</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>104051</v>
+        <v>100206</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>126746</v>
+        <v>127763</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>112645</v>
+        <v>114167</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>151448</v>
+        <v>153633</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>185574</v>
+        <v>185479</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>227094</v>
+        <v>228371</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>43053</v>
+        <v>42961</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>63296</v>
+        <v>64627</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>66551</v>
+        <v>66519</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>130629</v>
+        <v>131510</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>84761</v>
+        <v>84619</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>92821</v>
+        <v>94321</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>89575</v>
+        <v>93192</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>170782</v>
+        <v>171766</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>137058</v>
+        <v>137428</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>169042</v>
+        <v>167649</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>169802</v>
+        <v>167727</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>313628</v>
+        <v>312112</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>71792</v>
+        <v>70170</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>100259</v>
+        <v>100955</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>100607</v>
+        <v>100295</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>169774</v>
+        <v>171875</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>126468</v>
+        <v>124508</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>138172</v>
+        <v>135033</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>136684</v>
+        <v>137679</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>210072</v>
+        <v>211406</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>182591</v>
+        <v>187833</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>223121</v>
+        <v>223137</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>225931</v>
+        <v>224180</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>367048</v>
+        <v>369001</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>183112</v>
+        <v>180949</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>279539</v>
+        <v>279230</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>280094</v>
+        <v>276524</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>430408</v>
+        <v>430717</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>297503</v>
+        <v>294355</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>334698</v>
+        <v>329953</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>338703</v>
+        <v>338764</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>567558</v>
+        <v>570855</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>489955</v>
+        <v>496565</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>632604</v>
+        <v>631493</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>638349</v>
+        <v>640019</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1014986</v>
+        <v>1013873</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>236190</v>
+        <v>234815</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>352995</v>
+        <v>352823</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>344440</v>
+        <v>343892</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>503957</v>
+        <v>502732</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>364110</v>
+        <v>365701</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>404239</v>
+        <v>406886</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>419753</v>
+        <v>421912</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>634275</v>
+        <v>638812</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>579749</v>
+        <v>582847</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>732213</v>
+        <v>734098</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>745695</v>
+        <v>746856</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1115141</v>
+        <v>1118704</v>
       </c>
     </row>
     <row r="24">
